--- a/StructureDefinition-pco-goal-prom-profile.xlsx
+++ b/StructureDefinition-pco-goal-prom-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T18:37:51+00:00</t>
+    <t>2024-08-28T01:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-prom-profile.xlsx
+++ b/StructureDefinition-pco-goal-prom-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T01:59:14+00:00</t>
+    <t>2024-08-28T17:18:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-prom-profile.xlsx
+++ b/StructureDefinition-pco-goal-prom-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T17:18:00+00:00</t>
+    <t>2024-08-28T19:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-prom-profile.xlsx
+++ b/StructureDefinition-pco-goal-prom-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="302">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T19:37:38+00:00</t>
+    <t>2024-08-28T21:15:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>Person-Centered Outcome category</t>
+  </si>
+  <si>
+    <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
     <t>http://mtnlotus.com/uv/pco/ValueSet/pco-category-valueset</t>
@@ -685,10 +688,110 @@
     <t>Goals can be established prior to there being an intention to start pursuing them; e.g. Goals for post-surgical recovery established prior to surgery.</t>
   </si>
   <si>
-    <t>Codes describing events that can trigger the initiation of a goal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/goal-start-event</t>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
+    <t>Goal.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>(USCDI) Target outcome for the goal</t>
+  </si>
+  <si>
+    <t>Indicates what should be done by when.</t>
+  </si>
+  <si>
+    <t>When multiple targets are present for a single goal instance, all targets must be met for the overall goal to be met.</t>
+  </si>
+  <si>
+    <t>Allows the progress of the goal to be monitored against an observation or due date.  Target is 0..* to support Observations with multiple components, such as blood pressure goals with both a systolic and diastolic target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gol-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+gol-1:Goal.target.measure is required if Goal.target.detail is populated {(detail.exists() and measure.exists()) or detail.exists().not()}</t>
+  </si>
+  <si>
+    <t>Goal.target.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Goal.target.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Goal.target.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Goal.target.measure</t>
+  </si>
+  <si>
+    <t>Target score for evaluating PCO Goal using PROMs</t>
+  </si>
+  <si>
+    <t>The parameter whose value is being tracked, e.g. body weight, blood pressure, or hemoglobin A1c level.</t>
+  </si>
+  <si>
+    <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures</t>
+  </si>
+  <si>
+    <t>Goal.target.detail[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>The target value to be achieved</t>
+  </si>
+  <si>
+    <t>The target value of the focus to be achieved to signify the fulfillment of the goal, e.g. 150 pounds, 7.0%. Either the high or low or both values of the range can be specified. When a low value is missing, it indicates that the goal is achieved at any focus value at or below the high value. Similarly, if the high value is missing, it indicates that the goal is achieved at any focus value at or above the low value.</t>
+  </si>
+  <si>
+    <t>A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Goal.target.measure defines a coded value.</t>
+  </si>
+  <si>
+    <t>Codes to identify the target value of the focus to be achieved to signify the fulfillment of the goal.</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -696,118 +799,6 @@
   </si>
   <si>
     <t>closed</t>
-  </si>
-  <si>
-    <t>FiveWs.planned</t>
-  </si>
-  <si>
-    <t>Goal.start[x]:startDate</t>
-  </si>
-  <si>
-    <t>startDate</t>
-  </si>
-  <si>
-    <t>Goal.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>(USCDI) Target outcome for the goal</t>
-  </si>
-  <si>
-    <t>Indicates what should be done by when.</t>
-  </si>
-  <si>
-    <t>When multiple targets are present for a single goal instance, all targets must be met for the overall goal to be met.</t>
-  </si>
-  <si>
-    <t>Allows the progress of the goal to be monitored against an observation or due date.  Target is 0..* to support Observations with multiple components, such as blood pressure goals with both a systolic and diastolic target.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gol-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-gol-1:Goal.target.measure is required if Goal.target.detail is populated {(detail.exists() and measure.exists()) or detail.exists().not()}</t>
-  </si>
-  <si>
-    <t>Goal.target.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Goal.target.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Goal.target.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Goal.target.measure</t>
-  </si>
-  <si>
-    <t>Target score for evaluating PCO Goal using PROMs</t>
-  </si>
-  <si>
-    <t>The parameter whose value is being tracked, e.g. body weight, blood pressure, or hemoglobin A1c level.</t>
-  </si>
-  <si>
-    <t>http://mtnlotus.com/uv/pco/ValueSet/prom-target-measures</t>
-  </si>
-  <si>
-    <t>Goal.target.detail[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>The target value to be achieved</t>
-  </si>
-  <si>
-    <t>The target value of the focus to be achieved to signify the fulfillment of the goal, e.g. 150 pounds, 7.0%. Either the high or low or both values of the range can be specified. When a low value is missing, it indicates that the goal is achieved at any focus value at or below the high value. Similarly, if the high value is missing, it indicates that the goal is achieved at any focus value at or above the low value.</t>
-  </si>
-  <si>
-    <t>A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Goal.target.measure defines a coded value.</t>
-  </si>
-  <si>
-    <t>Codes to identify the target value of the focus to be achieved to signify the fulfillment of the goal.</t>
   </si>
   <si>
     <t>Goal.target.detail[x]:detailQuantity</t>
@@ -1285,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1318,7 +1309,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="137.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="56.23828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -2959,11 +2950,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3007,10 +3000,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3036,16 +3029,16 @@
         <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3073,10 +3066,10 @@
         <v>110</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3094,7 +3087,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3112,18 +3105,18 @@
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3149,16 +3142,16 @@
         <v>162</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3183,13 +3176,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3207,7 +3200,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3222,21 +3215,21 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3259,17 +3252,17 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3318,7 +3311,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3333,21 +3326,21 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3370,17 +3363,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3405,29 +3398,31 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3448,19 +3443,17 @@
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3478,20 +3471,22 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3540,19 +3535,19 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
@@ -3561,15 +3556,15 @@
         <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3577,13 +3572,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
@@ -3592,20 +3587,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3653,25 +3644,25 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3679,21 +3670,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
@@ -3705,15 +3696,17 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3762,25 +3755,25 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -3788,14 +3781,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3808,16 +3801,16 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>237</v>
@@ -3825,7 +3818,9 @@
       <c r="N23" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3891,7 +3886,7 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -3906,39 +3901,35 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -3962,13 +3953,11 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -3986,25 +3975,25 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4012,10 +4001,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4029,7 +4018,7 @@
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>76</v>
@@ -4038,7 +4027,7 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>245</v>
@@ -4046,7 +4035,9 @@
       <c r="M25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N25" s="2"/>
+      <c r="N25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4071,29 +4062,29 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4102,7 +4093,7 @@
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4119,12 +4110,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4136,7 +4129,7 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4145,16 +4138,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4183,7 +4176,7 @@
         <v>172</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>76</v>
@@ -4192,17 +4185,19 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4211,7 +4206,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4231,17 +4226,15 @@
         <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4256,18 +4249,18 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4291,10 +4284,10 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>76</v>
@@ -4315,7 +4308,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4324,7 +4317,7 @@
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4336,15 +4329,15 @@
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4358,7 +4351,7 @@
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -4367,18 +4360,18 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4426,7 +4419,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4447,15 +4440,15 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4475,19 +4468,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4537,7 +4530,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4558,15 +4551,15 @@
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4580,25 +4573,25 @@
         <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4648,7 +4641,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4669,15 +4662,15 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4688,7 +4681,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>87</v>
@@ -4697,21 +4690,21 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4759,13 +4752,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4777,18 +4770,18 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4802,7 +4795,7 @@
         <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>76</v>
@@ -4811,17 +4804,19 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4870,7 +4865,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4885,21 +4880,21 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4922,19 +4917,19 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -4959,13 +4954,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -4983,7 +4978,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -4998,10 +4993,10 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5009,10 +5004,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5035,19 +5030,19 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5072,13 +5067,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5096,7 +5091,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5120,121 +5115,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM35">
+  <autoFilter ref="A1:AM34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5244,7 +5126,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pco-goal-prom-profile.xlsx
+++ b/StructureDefinition-pco-goal-prom-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T21:15:57+00:00</t>
+    <t>2024-08-28T22:24:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-prom-profile.xlsx
+++ b/StructureDefinition-pco-goal-prom-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-28T22:24:15+00:00</t>
+    <t>2024-09-06T15:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-goal-prom-profile.xlsx
+++ b/StructureDefinition-pco-goal-prom-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T15:21:17+00:00</t>
+    <t>2024-09-06T16:42:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
